--- a/sequences/11_retrieval_1.xlsx
+++ b/sequences/11_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -2140,6 +2164,30 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2204,6 +2252,30 @@
       <c r="F11" t="s">
         <v>205</v>
       </c>
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2400,6 +2472,30 @@
       <c r="F16" t="s">
         <v>205</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2552,6 +2648,30 @@
       <c r="F20" t="s">
         <v>205</v>
       </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2836,6 +2956,30 @@
       <c r="F27" t="s">
         <v>205</v>
       </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2988,6 +3132,30 @@
       <c r="F31" t="s">
         <v>205</v>
       </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -3096,6 +3264,30 @@
       <c r="F34" t="s">
         <v>205</v>
       </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3160,6 +3352,30 @@
       <c r="F36" t="s">
         <v>205</v>
       </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N36" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3224,6 +3440,30 @@
       <c r="F38" t="s">
         <v>205</v>
       </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3508,6 +3748,30 @@
       <c r="F45" t="s">
         <v>205</v>
       </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K45" t="s">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N45" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3660,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3680,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3832,6 +4144,30 @@
       <c r="F54" t="s">
         <v>205</v>
       </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>205</v>
+      </c>
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -4028,6 +4364,30 @@
       <c r="F59" t="s">
         <v>205</v>
       </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K59" t="s">
+        <v>205</v>
+      </c>
+      <c r="L59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4136,6 +4496,30 @@
       <c r="F62" t="s">
         <v>205</v>
       </c>
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" t="s">
+        <v>205</v>
+      </c>
+      <c r="M62" t="s">
+        <v>205</v>
+      </c>
+      <c r="N62" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4156,6 +4540,30 @@
       <c r="F63" t="s">
         <v>205</v>
       </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" t="s">
+        <v>205</v>
+      </c>
+      <c r="L63" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" t="s">
+        <v>205</v>
+      </c>
+      <c r="N63" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4220,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4284,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4304,6 +4760,30 @@
       <c r="F68" t="s">
         <v>205</v>
       </c>
+      <c r="G68" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" t="s">
+        <v>205</v>
+      </c>
+      <c r="K68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L68" t="s">
+        <v>205</v>
+      </c>
+      <c r="M68" t="s">
+        <v>205</v>
+      </c>
+      <c r="N68" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4412,6 +4892,30 @@
       <c r="F71" t="s">
         <v>205</v>
       </c>
+      <c r="G71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" t="s">
+        <v>205</v>
+      </c>
+      <c r="I71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" t="s">
+        <v>205</v>
+      </c>
+      <c r="K71" t="s">
+        <v>205</v>
+      </c>
+      <c r="L71" t="s">
+        <v>205</v>
+      </c>
+      <c r="M71" t="s">
+        <v>205</v>
+      </c>
+      <c r="N71" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4432,6 +4936,30 @@
       <c r="F72" t="s">
         <v>205</v>
       </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4452,6 +4980,30 @@
       <c r="F73" t="s">
         <v>205</v>
       </c>
+      <c r="G73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K73" t="s">
+        <v>205</v>
+      </c>
+      <c r="L73" t="s">
+        <v>205</v>
+      </c>
+      <c r="M73" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4648,6 +5200,30 @@
       <c r="F78" t="s">
         <v>205</v>
       </c>
+      <c r="G78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="N78" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4712,6 +5288,30 @@
       <c r="F80" t="s">
         <v>205</v>
       </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" t="s">
+        <v>205</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K80" t="s">
+        <v>205</v>
+      </c>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
+      <c r="N80" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4732,6 +5332,30 @@
       <c r="F81" t="s">
         <v>205</v>
       </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" t="s">
+        <v>205</v>
+      </c>
+      <c r="N81" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4796,6 +5420,30 @@
       <c r="F83" t="s">
         <v>205</v>
       </c>
+      <c r="G83" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I83" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>205</v>
+      </c>
+      <c r="K83" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" t="s">
+        <v>205</v>
+      </c>
+      <c r="M83" t="s">
+        <v>205</v>
+      </c>
+      <c r="N83" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4816,6 +5464,30 @@
       <c r="F84" t="s">
         <v>205</v>
       </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
+        <v>205</v>
+      </c>
+      <c r="I84" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" t="s">
+        <v>205</v>
+      </c>
+      <c r="K84" t="s">
+        <v>205</v>
+      </c>
+      <c r="L84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4836,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4900,6 +5596,30 @@
       <c r="F87" t="s">
         <v>205</v>
       </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" t="s">
+        <v>205</v>
+      </c>
+      <c r="I87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" t="s">
+        <v>205</v>
+      </c>
+      <c r="K87" t="s">
+        <v>205</v>
+      </c>
+      <c r="L87" t="s">
+        <v>205</v>
+      </c>
+      <c r="M87" t="s">
+        <v>205</v>
+      </c>
+      <c r="N87" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -4920,6 +5640,30 @@
       <c r="F88" t="s">
         <v>205</v>
       </c>
+      <c r="G88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" t="s">
+        <v>205</v>
+      </c>
+      <c r="I88" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" t="s">
+        <v>205</v>
+      </c>
+      <c r="K88" t="s">
+        <v>205</v>
+      </c>
+      <c r="L88" t="s">
+        <v>205</v>
+      </c>
+      <c r="M88" t="s">
+        <v>205</v>
+      </c>
+      <c r="N88" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -4940,6 +5684,30 @@
       <c r="F89" t="s">
         <v>205</v>
       </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+      <c r="H89" t="s">
+        <v>205</v>
+      </c>
+      <c r="I89" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" t="s">
+        <v>205</v>
+      </c>
+      <c r="L89" t="s">
+        <v>205</v>
+      </c>
+      <c r="M89" t="s">
+        <v>205</v>
+      </c>
+      <c r="N89" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5004,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5068,6 +5860,30 @@
       <c r="F93" t="s">
         <v>205</v>
       </c>
+      <c r="G93" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93" t="s">
+        <v>205</v>
+      </c>
+      <c r="I93" t="s">
+        <v>205</v>
+      </c>
+      <c r="J93" t="s">
+        <v>205</v>
+      </c>
+      <c r="K93" t="s">
+        <v>205</v>
+      </c>
+      <c r="L93" t="s">
+        <v>205</v>
+      </c>
+      <c r="M93" t="s">
+        <v>205</v>
+      </c>
+      <c r="N93" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5176,6 +5992,30 @@
       <c r="F96" t="s">
         <v>205</v>
       </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" t="s">
+        <v>205</v>
+      </c>
+      <c r="L96" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s">
+        <v>205</v>
+      </c>
+      <c r="N96" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5240,6 +6080,30 @@
       <c r="F98" t="s">
         <v>205</v>
       </c>
+      <c r="G98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+      <c r="I98" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98" t="s">
+        <v>205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" t="s">
+        <v>205</v>
+      </c>
+      <c r="N98" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5348,6 +6212,30 @@
       <c r="F101" t="s">
         <v>205</v>
       </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" t="s">
+        <v>205</v>
+      </c>
+      <c r="I101" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" t="s">
+        <v>205</v>
+      </c>
+      <c r="K101" t="s">
+        <v>205</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" t="s">
+        <v>205</v>
+      </c>
+      <c r="N101" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5412,6 +6300,30 @@
       <c r="F103" t="s">
         <v>205</v>
       </c>
+      <c r="G103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+      <c r="I103" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" t="s">
+        <v>205</v>
+      </c>
+      <c r="K103" t="s">
+        <v>205</v>
+      </c>
+      <c r="L103" t="s">
+        <v>205</v>
+      </c>
+      <c r="M103" t="s">
+        <v>205</v>
+      </c>
+      <c r="N103" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5476,6 +6388,30 @@
       <c r="F105" t="s">
         <v>205</v>
       </c>
+      <c r="G105" t="s">
+        <v>205</v>
+      </c>
+      <c r="H105" t="s">
+        <v>205</v>
+      </c>
+      <c r="I105" t="s">
+        <v>205</v>
+      </c>
+      <c r="J105" t="s">
+        <v>205</v>
+      </c>
+      <c r="K105" t="s">
+        <v>205</v>
+      </c>
+      <c r="L105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M105" t="s">
+        <v>205</v>
+      </c>
+      <c r="N105" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5584,6 +6520,30 @@
       <c r="F108" t="s">
         <v>205</v>
       </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+      <c r="H108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108" t="s">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5648,6 +6608,30 @@
       <c r="F110" t="s">
         <v>205</v>
       </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" t="s">
+        <v>205</v>
+      </c>
+      <c r="I110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="K110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5668,6 +6652,30 @@
       <c r="F111" t="s">
         <v>205</v>
       </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>205</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="K111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5908,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6192,6 +7224,30 @@
       <c r="F124" t="s">
         <v>205</v>
       </c>
+      <c r="G124" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" t="s">
+        <v>205</v>
+      </c>
+      <c r="I124" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" t="s">
+        <v>205</v>
+      </c>
+      <c r="K124" t="s">
+        <v>205</v>
+      </c>
+      <c r="L124" t="s">
+        <v>205</v>
+      </c>
+      <c r="M124" t="s">
+        <v>205</v>
+      </c>
+      <c r="N124" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6388,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6540,6 +7620,30 @@
       <c r="F133" t="s">
         <v>205</v>
       </c>
+      <c r="G133" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" t="s">
+        <v>205</v>
+      </c>
+      <c r="I133" t="s">
+        <v>205</v>
+      </c>
+      <c r="J133" t="s">
+        <v>205</v>
+      </c>
+      <c r="K133" t="s">
+        <v>205</v>
+      </c>
+      <c r="L133" t="s">
+        <v>205</v>
+      </c>
+      <c r="M133" t="s">
+        <v>205</v>
+      </c>
+      <c r="N133" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6560,6 +7664,30 @@
       <c r="F134" t="s">
         <v>205</v>
       </c>
+      <c r="G134" t="s">
+        <v>205</v>
+      </c>
+      <c r="H134" t="s">
+        <v>205</v>
+      </c>
+      <c r="I134" t="s">
+        <v>205</v>
+      </c>
+      <c r="J134" t="s">
+        <v>205</v>
+      </c>
+      <c r="K134" t="s">
+        <v>205</v>
+      </c>
+      <c r="L134" t="s">
+        <v>205</v>
+      </c>
+      <c r="M134" t="s">
+        <v>205</v>
+      </c>
+      <c r="N134" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6712,6 +7840,30 @@
       <c r="F138" t="s">
         <v>205</v>
       </c>
+      <c r="G138" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" t="s">
+        <v>205</v>
+      </c>
+      <c r="J138" t="s">
+        <v>205</v>
+      </c>
+      <c r="K138" t="s">
+        <v>205</v>
+      </c>
+      <c r="L138" t="s">
+        <v>205</v>
+      </c>
+      <c r="M138" t="s">
+        <v>205</v>
+      </c>
+      <c r="N138" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6820,6 +7972,30 @@
       <c r="F141" t="s">
         <v>205</v>
       </c>
+      <c r="G141" t="s">
+        <v>205</v>
+      </c>
+      <c r="H141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I141" t="s">
+        <v>205</v>
+      </c>
+      <c r="J141" t="s">
+        <v>205</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
+      </c>
+      <c r="L141" t="s">
+        <v>205</v>
+      </c>
+      <c r="M141" t="s">
+        <v>205</v>
+      </c>
+      <c r="N141" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6972,6 +8148,30 @@
       <c r="F145" t="s">
         <v>205</v>
       </c>
+      <c r="G145" t="s">
+        <v>205</v>
+      </c>
+      <c r="H145" t="s">
+        <v>205</v>
+      </c>
+      <c r="I145" t="s">
+        <v>205</v>
+      </c>
+      <c r="J145" t="s">
+        <v>205</v>
+      </c>
+      <c r="K145" t="s">
+        <v>205</v>
+      </c>
+      <c r="L145" t="s">
+        <v>205</v>
+      </c>
+      <c r="M145" t="s">
+        <v>205</v>
+      </c>
+      <c r="N145" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7036,6 +8236,30 @@
       <c r="F147" t="s">
         <v>205</v>
       </c>
+      <c r="G147" t="s">
+        <v>205</v>
+      </c>
+      <c r="H147" t="s">
+        <v>205</v>
+      </c>
+      <c r="I147" t="s">
+        <v>205</v>
+      </c>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K147" t="s">
+        <v>205</v>
+      </c>
+      <c r="L147" t="s">
+        <v>205</v>
+      </c>
+      <c r="M147" t="s">
+        <v>205</v>
+      </c>
+      <c r="N147" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7188,6 +8412,30 @@
       <c r="F151" t="s">
         <v>205</v>
       </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s">
+        <v>205</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+      <c r="K151" t="s">
+        <v>205</v>
+      </c>
+      <c r="L151" t="s">
+        <v>205</v>
+      </c>
+      <c r="M151" t="s">
+        <v>205</v>
+      </c>
+      <c r="N151" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7296,6 +8544,30 @@
       <c r="F154" t="s">
         <v>205</v>
       </c>
+      <c r="G154" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" t="s">
+        <v>205</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+      <c r="K154" t="s">
+        <v>205</v>
+      </c>
+      <c r="L154" t="s">
+        <v>205</v>
+      </c>
+      <c r="M154" t="s">
+        <v>205</v>
+      </c>
+      <c r="N154" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7448,6 +8720,30 @@
       <c r="F158" t="s">
         <v>205</v>
       </c>
+      <c r="G158" t="s">
+        <v>205</v>
+      </c>
+      <c r="H158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+      <c r="J158" t="s">
+        <v>205</v>
+      </c>
+      <c r="K158" t="s">
+        <v>205</v>
+      </c>
+      <c r="L158" t="s">
+        <v>205</v>
+      </c>
+      <c r="M158" t="s">
+        <v>205</v>
+      </c>
+      <c r="N158" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7600,6 +8896,30 @@
       <c r="F162" t="s">
         <v>205</v>
       </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+      <c r="J162" t="s">
+        <v>205</v>
+      </c>
+      <c r="K162" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" t="s">
+        <v>205</v>
+      </c>
+      <c r="M162" t="s">
+        <v>205</v>
+      </c>
+      <c r="N162" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7664,6 +8984,30 @@
       <c r="F164" t="s">
         <v>205</v>
       </c>
+      <c r="G164" t="s">
+        <v>205</v>
+      </c>
+      <c r="H164" t="s">
+        <v>205</v>
+      </c>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+      <c r="K164" t="s">
+        <v>205</v>
+      </c>
+      <c r="L164" t="s">
+        <v>205</v>
+      </c>
+      <c r="M164" t="s">
+        <v>205</v>
+      </c>
+      <c r="N164" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7728,6 +9072,30 @@
       <c r="F166" t="s">
         <v>205</v>
       </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
+      <c r="H166" t="s">
+        <v>205</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J166" t="s">
+        <v>205</v>
+      </c>
+      <c r="K166" t="s">
+        <v>205</v>
+      </c>
+      <c r="L166" t="s">
+        <v>205</v>
+      </c>
+      <c r="M166" t="s">
+        <v>205</v>
+      </c>
+      <c r="N166" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7836,6 +9204,30 @@
       <c r="F169" t="s">
         <v>205</v>
       </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+      <c r="H169" t="s">
+        <v>205</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+      <c r="K169" t="s">
+        <v>205</v>
+      </c>
+      <c r="L169" t="s">
+        <v>205</v>
+      </c>
+      <c r="M169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7856,6 +9248,30 @@
       <c r="F170" t="s">
         <v>205</v>
       </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H170" t="s">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+      <c r="J170" t="s">
+        <v>205</v>
+      </c>
+      <c r="K170" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" t="s">
+        <v>205</v>
+      </c>
+      <c r="M170" t="s">
+        <v>205</v>
+      </c>
+      <c r="N170" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7964,6 +9380,30 @@
       <c r="F173" t="s">
         <v>205</v>
       </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
+      <c r="H173" t="s">
+        <v>205</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+      <c r="K173" t="s">
+        <v>205</v>
+      </c>
+      <c r="L173" t="s">
+        <v>205</v>
+      </c>
+      <c r="M173" t="s">
+        <v>205</v>
+      </c>
+      <c r="N173" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8028,6 +9468,30 @@
       <c r="F175" t="s">
         <v>205</v>
       </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
+      <c r="H175" t="s">
+        <v>205</v>
+      </c>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>205</v>
+      </c>
+      <c r="K175" t="s">
+        <v>205</v>
+      </c>
+      <c r="L175" t="s">
+        <v>205</v>
+      </c>
+      <c r="M175" t="s">
+        <v>205</v>
+      </c>
+      <c r="N175" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8268,6 +9732,30 @@
       <c r="F181" t="s">
         <v>205</v>
       </c>
+      <c r="G181" t="s">
+        <v>205</v>
+      </c>
+      <c r="H181" t="s">
+        <v>205</v>
+      </c>
+      <c r="I181" t="s">
+        <v>205</v>
+      </c>
+      <c r="J181" t="s">
+        <v>205</v>
+      </c>
+      <c r="K181" t="s">
+        <v>205</v>
+      </c>
+      <c r="L181" t="s">
+        <v>205</v>
+      </c>
+      <c r="M181" t="s">
+        <v>205</v>
+      </c>
+      <c r="N181" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>205</v>
       </c>
+      <c r="G187" t="s">
+        <v>205</v>
+      </c>
+      <c r="H187" t="s">
+        <v>205</v>
+      </c>
+      <c r="I187" t="s">
+        <v>205</v>
+      </c>
+      <c r="J187" t="s">
+        <v>205</v>
+      </c>
+      <c r="K187" t="s">
+        <v>205</v>
+      </c>
+      <c r="L187" t="s">
+        <v>205</v>
+      </c>
+      <c r="M187" t="s">
+        <v>205</v>
+      </c>
+      <c r="N187" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>205</v>
+      </c>
+      <c r="G192" t="s">
+        <v>205</v>
+      </c>
+      <c r="H192" t="s">
+        <v>205</v>
+      </c>
+      <c r="I192" t="s">
+        <v>205</v>
+      </c>
+      <c r="J192" t="s">
+        <v>205</v>
+      </c>
+      <c r="K192" t="s">
+        <v>205</v>
+      </c>
+      <c r="L192" t="s">
+        <v>205</v>
+      </c>
+      <c r="M192" t="s">
+        <v>205</v>
+      </c>
+      <c r="N192" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/11_retrieval_1.xlsx
+++ b/sequences/11_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>lauten</t>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>graben</t>
   </si>
   <si>
     <t>planen</t>
   </si>
   <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>passen</t>
+    <t>binden</t>
   </si>
   <si>
     <t>sparen</t>
   </si>
   <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>tagen</t>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
   </si>
   <si>
     <t>stillen</t>
   </si>
   <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>töten</t>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>backen</t>
   </si>
   <si>
     <t>schenken</t>
   </si>
   <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>platzen</t>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>buchen</t>
   </si>
   <si>
     <t>ändern</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>lächeln</t>
   </si>
   <si>
     <t>N/A</t>
